--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1126,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1161,28 +1173,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1219,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1722,10 +1734,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1769,28 +1781,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1815,28 +1827,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2301,10 +2313,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2348,28 +2360,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2394,28 +2406,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2851,10 +2863,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2898,28 +2910,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2944,28 +2956,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3430,10 +3442,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3477,28 +3489,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3523,28 +3535,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3864,10 +3876,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="J129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3911,28 +3923,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3957,28 +3969,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4153,10 +4165,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4200,28 +4212,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4246,28 +4258,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4367,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
